--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>asdasdasdasd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Campaign Type</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>browsers</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>Safari</t>
   </si>
 </sst>
 </file>
@@ -377,23 +389,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,24 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Browsers</t>
+  </si>
   <si>
     <t>Campaign Type</t>
   </si>
   <si>
+    <t>Concat</t>
+  </si>
+  <si>
     <t>Quarter</t>
   </si>
   <si>
-    <t>browsers</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>Safari</t>
+    <t>Internet Explorer</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>12_23_Internet Explorer</t>
+  </si>
+  <si>
+    <t>RT_ER_Firefox</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>ER</t>
   </si>
 </sst>
 </file>
@@ -389,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,19 +423,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -28,28 +28,28 @@
     <t>Quarter</t>
   </si>
   <si>
+    <t>Chrome</t>
+  </si>
+  <si>
     <t>Internet Explorer</t>
   </si>
   <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>12_23_Internet Explorer</t>
-  </si>
-  <si>
-    <t>RT_ER_Firefox</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>ER</t>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>rty</t>
+  </si>
+  <si>
+    <t>dfg_qw_Chrome</t>
+  </si>
+  <si>
+    <t>rty_asd_Internet Explorer</t>
+  </si>
+  <si>
+    <t>qw</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,42 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Browsers</t>
-  </si>
-  <si>
-    <t>Campaign Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Concat</t>
   </si>
   <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Internet Explorer</t>
-  </si>
-  <si>
-    <t>dfg</t>
-  </si>
-  <si>
-    <t>rty</t>
-  </si>
-  <si>
-    <t>dfg_qw_Chrome</t>
-  </si>
-  <si>
-    <t>rty_asd_Internet Explorer</t>
-  </si>
-  <si>
-    <t>qw</t>
-  </si>
-  <si>
-    <t>asd</t>
+    <t>Line of Business</t>
+  </si>
+  <si>
+    <t>Marketing Campaign Type</t>
+  </si>
+  <si>
+    <t>Marketing Tactic</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>google.com?cmp=BAC_CON_PRS_99999</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>PRS</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>99999</t>
   </si>
 </sst>
 </file>
@@ -407,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,39 +420,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -31,19 +31,19 @@
     <t>Project Code</t>
   </si>
   <si>
-    <t>google.com?cmp=BAC_CON_PRS_99999</t>
+    <t>crm?cmp=BAC_CON_CRM_123</t>
   </si>
   <si>
     <t>CON</t>
   </si>
   <si>
-    <t>PRS</t>
+    <t>CRM</t>
   </si>
   <si>
     <t>BAC</t>
   </si>
   <si>
-    <t>99999</t>
+    <t>123</t>
   </si>
 </sst>
 </file>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -31,10 +31,10 @@
     <t>Project Code</t>
   </si>
   <si>
-    <t>crm?cmp=BAC_CON_CRM_123</t>
-  </si>
-  <si>
-    <t>CON</t>
+    <t>qweqwe?cmp=BAC_SMB_CRM_123123</t>
+  </si>
+  <si>
+    <t>SMB</t>
   </si>
   <si>
     <t>CRM</t>
@@ -43,7 +43,7 @@
     <t>BAC</t>
   </si>
   <si>
-    <t>123</t>
+    <t>123123</t>
   </si>
 </sst>
 </file>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,33 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Concat</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>In Market Date</t>
+  </si>
+  <si>
     <t>Line of Business</t>
   </si>
   <si>
     <t>Marketing Campaign Type</t>
   </si>
   <si>
+    <t>Marketing Group</t>
+  </si>
+  <si>
     <t>Marketing Tactic</t>
   </si>
   <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
     <t>Project Code</t>
   </si>
   <si>
-    <t>qweqwe?cmp=BAC_SMB_CRM_123123</t>
-  </si>
-  <si>
-    <t>SMB</t>
+    <t>google.com?cmp=DMO_CON_CRM_123123_AA_234234_TWT_123123_hihi_ohyea</t>
+  </si>
+  <si>
+    <t>hihi</t>
+  </si>
+  <si>
+    <t>234234</t>
+  </si>
+  <si>
+    <t>CON</t>
   </si>
   <si>
     <t>CRM</t>
   </si>
   <si>
-    <t>BAC</t>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>DMO</t>
+  </si>
+  <si>
+    <t>ohyea</t>
+  </si>
+  <si>
+    <t>TWT</t>
   </si>
   <si>
     <t>123123</t>
@@ -401,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,25 +453,55 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Concat</t>
   </si>
@@ -46,34 +46,25 @@
     <t>Project Code</t>
   </si>
   <si>
-    <t>google.com?cmp=DMO_CON_CRM_123123_AA_234234_TWT_123123_hihi_ohyea</t>
-  </si>
-  <si>
-    <t>hihi</t>
-  </si>
-  <si>
-    <t>234234</t>
+    <t>123123?cmp=AFC_CON_ACQ_123123_OF_123123_TWT_123123_123123_123123</t>
+  </si>
+  <si>
+    <t>123123</t>
   </si>
   <si>
     <t>CON</t>
   </si>
   <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>DMO</t>
-  </si>
-  <si>
-    <t>ohyea</t>
+    <t>ACQ</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>AFC</t>
   </si>
   <si>
     <t>TWT</t>
-  </si>
-  <si>
-    <t>123123</t>
   </si>
 </sst>
 </file>
@@ -480,28 +471,28 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,64 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>Concat</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>In Market Date</t>
-  </si>
-  <si>
-    <t>Line of Business</t>
-  </si>
-  <si>
-    <t>Marketing Campaign Type</t>
-  </si>
-  <si>
-    <t>Marketing Group</t>
-  </si>
-  <si>
-    <t>Marketing Tactic</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Project Code</t>
-  </si>
-  <si>
-    <t>123123?cmp=AFC_CON_ACQ_123123_OF_123123_TWT_123123_123123_123123</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>ACQ</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>AFC</t>
-  </si>
-  <si>
-    <t>TWT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Encoded_URL</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>https://google.com?cmp=AFC_CON_ACQ_123123_OF_12312018_NA_123123_q_w</t>
+  </si>
+  <si>
+    <t>https://smoogle.com?cmp=AFC_CON_ACQ_234234_OF_01222019_NA_234234_a_s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +53,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,16 +94,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,80 +402,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pandas_simple.xlsx
+++ b/pandas_simple.xlsx
@@ -14,24 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Note</t>
+  </si>
   <si>
     <t>Encoded_URL</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>https://google.com?cmp=AFC_CON_ACQ_123123_OF_12312018_NA_123123_q_w</t>
-  </si>
-  <si>
-    <t>https://smoogle.com?cmp=AFC_CON_ACQ_234234_OF_01222019_NA_234234_a_s</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>https://google.com?cmp=AFC_CON_ACQ_111111_OF_01022018_NA_111111_123_345</t>
+  </si>
+  <si>
+    <t>https://google.com?cmp=AFC_CON_ACQ_222222_OF_01022018_NA_222222_234_456</t>
+  </si>
+  <si>
+    <t>https://google.com?cmp=AFC_CON_ACQ_333333_OF_01022018_NA_333333_345_567</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,28 +426,40 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
